--- a/summaries/trials/COVIDSAFE/lineages.xlsx
+++ b/summaries/trials/COVIDSAFE/lineages.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t xml:space="preserve">sample</t>
   </si>
@@ -30,6 +30,60 @@
   </si>
   <si>
     <t xml:space="preserve">B.1.243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COVIDSAFE|1974|Saliva|20210101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.1.1.304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COVIDSAFE|2007|Saliva|20210101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.1.234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COVIDSAFE|2456|Saliva|20210101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COVIDSAFE|3057|Saliva|20210101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COVIDSAFE|3110|Saliva|20210101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COVIDSAFE|3120|Saliva|20210101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COVIDSAFE|3228|Saliva|20210101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COVIDSAFE|4329|Saliva|20210101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COVIDSAFE|4736|Saliva|20210101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COVIDSAFE|8504|Saliva|20210101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COVIDSAFE|8512|Saliva|20210101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COVIDSAFE|9070|Saliva|20210101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.1.311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COVIDSAFE|9102|Saliva|20210101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COVIDSAFE|9106|Saliva|20210101</t>
   </si>
   <si>
     <t xml:space="preserve">COVIDSAFE|95-267|Saliva_-_Positive_Control|20201211</t>
@@ -396,14 +450,126 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
         <v>5</v>
       </c>
     </row>

--- a/summaries/trials/COVIDSAFE/lineages.xlsx
+++ b/summaries/trials/COVIDSAFE/lineages.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t xml:space="preserve">sample</t>
   </si>
@@ -23,76 +23,109 @@
     <t xml:space="preserve">COVIDSAFE|10-1017|Saliva_-_Positive_Control|20201211</t>
   </si>
   <si>
-    <t xml:space="preserve">B.1.1</t>
+    <t xml:space="preserve">VSP0547</t>
   </si>
   <si>
     <t xml:space="preserve">COVIDSAFE|161|Saliva_-_Positive_Control|20201211</t>
   </si>
   <si>
-    <t xml:space="preserve">B.1.243</t>
+    <t xml:space="preserve">VSP0543</t>
   </si>
   <si>
     <t xml:space="preserve">COVIDSAFE|1974|Saliva|20210101</t>
   </si>
   <si>
-    <t xml:space="preserve">B.1.1.304</t>
+    <t xml:space="preserve">VSP0605</t>
   </si>
   <si>
     <t xml:space="preserve">COVIDSAFE|2007|Saliva|20210101</t>
   </si>
   <si>
-    <t xml:space="preserve">B.1.234</t>
+    <t xml:space="preserve">VSP0603</t>
   </si>
   <si>
     <t xml:space="preserve">COVIDSAFE|2456|Saliva|20210101</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0608</t>
+  </si>
+  <si>
     <t xml:space="preserve">COVIDSAFE|3057|Saliva|20210101</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0606</t>
+  </si>
+  <si>
     <t xml:space="preserve">COVIDSAFE|3110|Saliva|20210101</t>
   </si>
   <si>
-    <t xml:space="preserve">B.1.2</t>
+    <t xml:space="preserve">VSP0609</t>
   </si>
   <si>
     <t xml:space="preserve">COVIDSAFE|3120|Saliva|20210101</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0607</t>
+  </si>
+  <si>
     <t xml:space="preserve">COVIDSAFE|3228|Saliva|20210101</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0615</t>
+  </si>
+  <si>
     <t xml:space="preserve">COVIDSAFE|4329|Saliva|20210101</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0617</t>
+  </si>
+  <si>
     <t xml:space="preserve">COVIDSAFE|4736|Saliva|20210101</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0616</t>
+  </si>
+  <si>
     <t xml:space="preserve">COVIDSAFE|8504|Saliva|20210101</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0613</t>
+  </si>
+  <si>
     <t xml:space="preserve">COVIDSAFE|8512|Saliva|20210101</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0614</t>
+  </si>
+  <si>
     <t xml:space="preserve">COVIDSAFE|9070|Saliva|20210101</t>
   </si>
   <si>
-    <t xml:space="preserve">B.1.311</t>
+    <t xml:space="preserve">VSP0604</t>
   </si>
   <si>
     <t xml:space="preserve">COVIDSAFE|9102|Saliva|20210101</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0612</t>
+  </si>
+  <si>
     <t xml:space="preserve">COVIDSAFE|9106|Saliva|20210101</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0611</t>
+  </si>
+  <si>
     <t xml:space="preserve">COVIDSAFE|95-267|Saliva_-_Positive_Control|20201211</t>
   </si>
   <si>
-    <t xml:space="preserve">B.1.1.28</t>
+    <t xml:space="preserve">VSP0545</t>
   </si>
   <si>
     <t xml:space="preserve">COVIDSAFE|97-736|Saliva_-_Positive_Control|20201211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0546</t>
   </si>
 </sst>
 </file>
@@ -469,111 +502,111 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
